--- a/Analysis_Model/1.xlsx
+++ b/Analysis_Model/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="270">
   <si>
     <t>Internal</t>
   </si>
@@ -101,6 +101,681 @@
   </si>
   <si>
     <t>O_XXX</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>FromIO</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>FromName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FromPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In2_State_Chart</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In_State_Chart</t>
+  </si>
+  <si>
+    <t>ToIO</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>ToName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>ToPort</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ToPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/Out_State_Chart</t>
+  </si>
+  <si>
+    <t>Outernal</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Inport</t>
+  </si>
+  <si>
+    <t>Outport</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>h_AAA</t>
+  </si>
+  <si>
+    <t>h_BBB</t>
+  </si>
+  <si>
+    <t>O_XXX</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>FromIO</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>FromName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FromPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In2_State_Chart</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In_State_Chart</t>
+  </si>
+  <si>
+    <t>ToIO</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>ToName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>ToPort</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ToPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/Out_State_Chart</t>
+  </si>
+  <si>
+    <t>Outernal</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Inport</t>
+  </si>
+  <si>
+    <t>Outport</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>h_AAA</t>
+  </si>
+  <si>
+    <t>h_BBB</t>
+  </si>
+  <si>
+    <t>O_XXX</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>FromName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>FromIO</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FromPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In2_State_Chart</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In_State_Chart</t>
+  </si>
+  <si>
+    <t>ToName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>ToIO</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>ToPort</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ToPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/Out_State_Chart</t>
+  </si>
+  <si>
+    <t>Outernal</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Inport</t>
+  </si>
+  <si>
+    <t>Outport</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>h_AAA</t>
+  </si>
+  <si>
+    <t>h_BBB</t>
+  </si>
+  <si>
+    <t>O_XXX</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>FromName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>FromIO</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FromPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In2_State_Chart</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In_State_Chart</t>
+  </si>
+  <si>
+    <t>ToName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>ToIO</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>ToPort</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ToPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/Out_State_Chart</t>
+  </si>
+  <si>
+    <t>Outernal</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Inport</t>
+  </si>
+  <si>
+    <t>Outport</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>h_AAA</t>
+  </si>
+  <si>
+    <t>h_BBB</t>
+  </si>
+  <si>
+    <t>O_XXX</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>FromName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>FromIO</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FromPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In2_State_Chart</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/In_State_Chart</t>
+  </si>
+  <si>
+    <t>ToName</t>
+  </si>
+  <si>
+    <t>LO_CCC</t>
+  </si>
+  <si>
+    <t>LO_BBB</t>
+  </si>
+  <si>
+    <t>ToIO</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>ToPort</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ToPath</t>
+  </si>
+  <si>
+    <t>AnalysisSample11/AnalysisSample/Out_State_Chart</t>
+  </si>
+  <si>
+    <t>Outernal</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>h_AAA</t>
+  </si>
+  <si>
+    <t>h_BBB</t>
+  </si>
+  <si>
+    <t>O_XXX</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Inport</t>
+  </si>
+  <si>
+    <t>Outport</t>
   </si>
   <si>
     <t>Port</t>
@@ -201,195 +876,195 @@
     <col min="3" max="3" width="6.28515625" customWidth="true"/>
     <col min="4" max="4" width="4.85546875" customWidth="true"/>
     <col min="5" max="5" width="46.5703125" customWidth="true"/>
-    <col min="6" max="6" width="5.85546875" customWidth="true"/>
-    <col min="7" max="7" width="8.5703125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+    <col min="7" max="7" width="5.85546875" customWidth="true"/>
     <col min="8" max="8" width="7" customWidth="true"/>
     <col min="9" max="9" width="47.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
